--- a/táblázatok tegyed ruben.xlsx
+++ b/táblázatok tegyed ruben.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galmj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanulo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC2A57-9B4A-4289-A49A-5506AF5383D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
     <sheet name="Etherchannel" sheetId="2" r:id="rId2"/>
     <sheet name="HSRP" sheetId="3" r:id="rId3"/>
+    <sheet name="IP cím táblázat" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
   <si>
     <t>VLAN Azonosító</t>
   </si>
@@ -203,12 +205,99 @@
   </si>
   <si>
     <t>Helyi</t>
+  </si>
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port </t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Maszk</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Serial0/1/0</t>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t>255.255.255.240 (/28)</t>
+  </si>
+  <si>
+    <t>172.18.1.2</t>
+  </si>
+  <si>
+    <t>255.255.255.192 (/26)</t>
+  </si>
+  <si>
+    <t>172.18.1.66</t>
+  </si>
+  <si>
+    <t>255.255.255.224 (/27)</t>
+  </si>
+  <si>
+    <t>172.18.1.98</t>
+  </si>
+  <si>
+    <t>10.10.10.20</t>
+  </si>
+  <si>
+    <t>KFC Szentpéteri kapu</t>
+  </si>
+  <si>
+    <t>10.10.10.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial0/1/1 </t>
+  </si>
+  <si>
+    <t>20.20.20.2</t>
+  </si>
+  <si>
+    <t>Gig0/0/0</t>
+  </si>
+  <si>
+    <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.18.1.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux Server </t>
+  </si>
+  <si>
+    <t>172.18.1.94</t>
+  </si>
+  <si>
+    <t>Egon PC</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>192.168.35.1</t>
+  </si>
+  <si>
+    <t>192.168.15.1</t>
+  </si>
+  <si>
+    <t>IP Cím Tábla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +339,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -750,70 +851,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,6 +905,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,14 +976,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,16 +988,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,7 +1291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1166,349 +1309,349 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="2">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="2">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="2">
         <v>55</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="14" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="18" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="18" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="18" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="18" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="2">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="2">
         <v>55</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>35</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="2">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21">
+      <c r="A27" s="25"/>
+      <c r="B27" s="11">
         <v>55</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1527,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1543,36 +1686,36 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1">
@@ -1584,33 +1727,33 @@
       <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1623,10 +1766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1640,162 +1783,162 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>35</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>120</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>45</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>120</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>55</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>120</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>35</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>110</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>45</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>110</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="11">
         <v>55</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="11">
         <v>110</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="43" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1808,4 +1951,397 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDD19BA-EC22-4575-A05A-98DED64E0770}">
+  <dimension ref="B1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="51"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="51"/>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F4:F14"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/táblázatok tegyed ruben.xlsx
+++ b/táblázatok tegyed ruben.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanulo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanulo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC2A57-9B4A-4289-A49A-5506AF5383D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
     <sheet name="Etherchannel" sheetId="2" r:id="rId2"/>
     <sheet name="HSRP" sheetId="3" r:id="rId3"/>
     <sheet name="IP cím táblázat" sheetId="4" r:id="rId4"/>
+    <sheet name="Tunnel" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>VLAN Azonosító</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Linux Szerver</t>
   </si>
   <si>
-    <t>Switch2</t>
-  </si>
-  <si>
     <t>Fa0/24</t>
   </si>
   <si>
@@ -102,24 +99,9 @@
     <t>Fa0/22</t>
   </si>
   <si>
-    <t>Switch3</t>
-  </si>
-  <si>
-    <t>Benjámin PC</t>
-  </si>
-  <si>
     <t>Eugén PC</t>
   </si>
   <si>
-    <t>Hektor PC</t>
-  </si>
-  <si>
-    <t>Izsák PC</t>
-  </si>
-  <si>
-    <t>Ábrahám PC</t>
-  </si>
-  <si>
     <t>Dönci PC</t>
   </si>
   <si>
@@ -246,21 +228,12 @@
     <t>172.18.1.98</t>
   </si>
   <si>
-    <t>10.10.10.20</t>
-  </si>
-  <si>
     <t>KFC Szentpéteri kapu</t>
   </si>
   <si>
-    <t>10.10.10.21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serial0/1/1 </t>
   </si>
   <si>
-    <t>20.20.20.2</t>
-  </si>
-  <si>
     <t>Gig0/0/0</t>
   </si>
   <si>
@@ -292,15 +265,126 @@
   </si>
   <si>
     <t>IP Cím Tábla</t>
+  </si>
+  <si>
+    <t>Áron PC</t>
+  </si>
+  <si>
+    <t>Zsombor PC</t>
+  </si>
+  <si>
+    <t>G. Máté PC</t>
+  </si>
+  <si>
+    <t>B. Gergely PC</t>
+  </si>
+  <si>
+    <t>Sz. Gergely PC</t>
+  </si>
+  <si>
+    <t>221.93.222.132</t>
+  </si>
+  <si>
+    <t>221.93.222.133</t>
+  </si>
+  <si>
+    <t>NAT Címfordítás</t>
+  </si>
+  <si>
+    <t>Tunnel1</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>255.255.255.252 (/30)</t>
+  </si>
+  <si>
+    <t>Serial0/2/0</t>
+  </si>
+  <si>
+    <t>Serial0/2/1</t>
+  </si>
+  <si>
+    <t>10.10.10.5</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.6</t>
+  </si>
+  <si>
+    <t>10.10.10.9</t>
+  </si>
+  <si>
+    <t>KFC József Attila út Auchan</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>10.0.0.2</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Tunnel Forrás</t>
+  </si>
+  <si>
+    <t>Tunnel Cél</t>
+  </si>
+  <si>
+    <t>KFC József Attila Auchan</t>
+  </si>
+  <si>
+    <t>KFC Miskolc Plaza</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>VLAN1</t>
+  </si>
+  <si>
+    <t>172.18.1.69</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>172.18.1.101</t>
+  </si>
+  <si>
+    <t>192.168.25.2</t>
+  </si>
+  <si>
+    <t>VLAM45</t>
+  </si>
+  <si>
+    <t>172.18.1.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -352,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -866,11 +950,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -907,19 +1148,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,6 +1247,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,19 +1259,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,11 +1597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,13 +1615,13 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1335,7 +1641,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
@@ -1352,7 +1658,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2">
         <v>45</v>
       </c>
@@ -1367,7 +1673,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2">
         <v>55</v>
       </c>
@@ -1382,7 +1688,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
@@ -1399,7 +1705,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="2">
         <v>45</v>
       </c>
@@ -1414,7 +1720,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2">
         <v>55</v>
       </c>
@@ -1430,7 +1736,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2">
         <v>35</v>
@@ -1438,7 +1744,7 @@
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1447,7 +1753,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2">
         <v>45</v>
@@ -1455,14 +1761,14 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2">
         <v>55</v>
@@ -1470,75 +1776,75 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
+        <v>79</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1551,7 +1857,7 @@
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1566,14 +1872,14 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>20</v>
+      <c r="A22" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="2">
         <v>35</v>
@@ -1582,12 +1888,12 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2">
         <v>45</v>
       </c>
@@ -1595,12 +1901,12 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="2">
         <v>55</v>
       </c>
@@ -1608,13 +1914,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
+      <c r="A25" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B25" s="2">
         <v>35</v>
@@ -1623,12 +1929,12 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="2">
         <v>45</v>
       </c>
@@ -1636,12 +1942,12 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="11">
         <v>55</v>
       </c>
@@ -1649,9 +1955,9 @@
         <v>9</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="E27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1670,11 +1976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,67 +1992,67 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>37</v>
+      <c r="B4" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="17" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1766,7 +2072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1783,41 +2089,41 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>48</v>
+      <c r="H3" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1830,17 +2136,17 @@
         <v>120</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1851,17 +2157,17 @@
         <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1872,17 +2178,17 @@
         <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1895,17 +2201,17 @@
         <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1916,15 +2222,15 @@
         <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="G8" s="32"/>
       <c r="H8" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1935,11 +2241,11 @@
         <v>110</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="22" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1954,394 +2260,601 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDD19BA-EC22-4575-A05A-98DED64E0770}">
-  <dimension ref="B1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="78"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="78"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="39"/>
+      <c r="C8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
+      <c r="D8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="C9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="28"/>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="51"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="78"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="C13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="78"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="51"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="78"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="78"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="78"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="39"/>
+      <c r="C19" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="78"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="78"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="39"/>
+      <c r="C21" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="78"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="78"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="79"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="39"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="60"/>
+      <c r="F28" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>86</v>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F4:F14"/>
+  <mergeCells count="14">
+    <mergeCell ref="D28:E36"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F4:F23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>